--- a/biology/Zoologie/Hadronyche_formidabilis/Hadronyche_formidabilis.xlsx
+++ b/biology/Zoologie/Hadronyche_formidabilis/Hadronyche_formidabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadronyche formidabilis est une espèce d'araignées mygalomorphes de la famille des Atracidae[1]. Son venin est le plus puissant de la classe des arachnides. Mortel pour l'homme, le risque d'inoculation par morsure est réduit par l'absence de proximité de l'animal des zones de haute densité démographique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadronyche formidabilis est une espèce d'araignées mygalomorphes de la famille des Atracidae. Son venin est le plus puissant de la classe des arachnides. Mortel pour l'homme, le risque d'inoculation par morsure est réduit par l'absence de proximité de l'animal des zones de haute densité démographique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud au Nord du fleuve Hunter et dans le Sud-Est du Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud au Nord du fleuve Hunter et dans le Sud-Est du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Gray en 2010 mesure 11,39 mm de long sur 10,27 mm et l'abdomen 10,20 mm de long sur 7,48 mm et la carapace de la femelle mesure 14,84 mm de long sur 12,22 mm et l'abdomen 14,28 mm de long sur 10,54 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Gray en 2010 mesure 11,39 mm de long sur 10,27 mm et l'abdomen 10,20 mm de long sur 7,48 mm et la carapace de la femelle mesure 14,84 mm de long sur 12,22 mm et l'abdomen 14,28 mm de long sur 10,54 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow, 1914 : Studies in the Australian Araneidae. No. 6. The Terretelariae. Records of the Australian Museum, vol. 10, p. 187-270 (texte intégral).</t>
         </is>
